--- a/biology/Botanique/Forêt_en_Europe/Forêt_en_Europe.xlsx
+++ b/biology/Botanique/Forêt_en_Europe/Forêt_en_Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Europe</t>
+          <t>Forêt_en_Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts européennes telles que nous les connaissons actuellement ont commencé à se former au début de l'Holocène. 
 Leur superficie a été en grande partie réduite sous l'action de l'homme, même si la tendance actuelle est au reboisement.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Europe</t>
+          <t>Forêt_en_Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,14 @@
           <t>Histoire de la forêt européenne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt européenne est une forêt relativement jeune à l'échelle des temps géologiques. Elle n'a en effet commencé son installation qu'il y a 12 000 ans, au début de l'Holocène et du retrait des glaciers qui couvraient l'Europe du Nord et les Alpes. Ceux-ci influençaient l'ensemble du territoire européen et favorisaient la présence de toundras et de steppes plutôt que de forêt[1].
-Les essences actuelles ont survécu à la période de glaciation dans des territoires refuges suffisamment éloignés des glaciers, comme la Sicile ou la Grèce. À partir de ces régions, les forêts ont colonisé progressivement l'Europe au fur et à mesure du réchauffement climatique[2].
-Leur évolution depuis le début de l'Holocène jusqu'à nos jours est due à plusieurs familles de facteurs. Certains changements sont d'origine géologique ou climatique[3], mais l'action humaine fut également très importante. À cause d'elle, la forêt a diminué en surface de manière continue jusqu'au dix-neuvième siècle, et ses différentes caractéristiques - composition en essences, structure, sol - en ont été également grandement chamboulées[4].
-Avant la révolution néolithique, génératrice de défrichements pour la mise en culture des terres, les forêts couvraient 80% des 10 millions de km2 du continent européen à comparer au taux actuel de 23%[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt européenne est une forêt relativement jeune à l'échelle des temps géologiques. Elle n'a en effet commencé son installation qu'il y a 12 000 ans, au début de l'Holocène et du retrait des glaciers qui couvraient l'Europe du Nord et les Alpes. Ceux-ci influençaient l'ensemble du territoire européen et favorisaient la présence de toundras et de steppes plutôt que de forêt.
+Les essences actuelles ont survécu à la période de glaciation dans des territoires refuges suffisamment éloignés des glaciers, comme la Sicile ou la Grèce. À partir de ces régions, les forêts ont colonisé progressivement l'Europe au fur et à mesure du réchauffement climatique.
+Leur évolution depuis le début de l'Holocène jusqu'à nos jours est due à plusieurs familles de facteurs. Certains changements sont d'origine géologique ou climatique, mais l'action humaine fut également très importante. À cause d'elle, la forêt a diminué en surface de manière continue jusqu'au dix-neuvième siècle, et ses différentes caractéristiques - composition en essences, structure, sol - en ont été également grandement chamboulées.
+Avant la révolution néolithique, génératrice de défrichements pour la mise en culture des terres, les forêts couvraient 80% des 10 millions de km2 du continent européen à comparer au taux actuel de 23%.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Europe</t>
+          <t>Forêt_en_Europe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +563,14 @@
           <t>Situation actuelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts européennes s'étendent sur un milliard d'hectares (1 017 millions d'ha), ce qui représente un quart des forêts mondiales (4 059 millions d'ha). Quatre cinquièmes de ces forêts se trouvent en Russie, qui à elle seule possède un cinquième des réserves forestières mondiales (815 millions d'ha)[6].
-La proportion de surface couverte par les forêts en Europe est de 46 %[6], mais les différences entre pays sont fortes. Le pays le plus couvert est la Finlande, avec 73 %. Le pays le moins couvert est Monaco, qui n'a pas de forêts[7]. 178 millions d'hectares de forêt se trouvent sur le territoire de l'Union européenne, ce qui représente 40 % de sa surface[8].
-L’Europe est le continent qui a expérimenté le plus important gain de couverture forestière. Depuis les années 1950, la surface forestière  a augmenté de 300 000 km², soit l’équivalent de la surface de l’Italie[9],  parfois naturellement (on parle de forêts secondaires), parfois par des plantations artificielles[7]. Les gains les plus élevés ont été observés durant les dernières décennies : les estimations vont de 8 000 km² par an depuis les années 1990, à 28 300 km² par an entre 1982 et 2015[9]. L'Irlande a vu sa surface forestière augmenter de plus de 20 % entre 2000 et 2010 ; quatre pays de l'UE perdent cependant des forêts, dont le Danemark qui en a perdu 5 % sur une décennie (les autres pays sont le Portugal, la Slovénie et la Finlande)[8]. Plusieurs publications scientifiques récentes montrent que les forêts secondaires non gérées favorisent la biodiversité et sont plus résilientes face à la sécheresse. Leurs résultats ont été publiés en 2020 dans une série de six articles[9] de la revue Annals of Forest Science.
-40 % des forêts de l'Union européenne sont privées[10], avec une grande disparité entre les différents États membres : de 0 % pour Malte (ou bien 11 % pour la Bulgarie) à 98 % au Portugal. Ce pourcentage est plus important que pour la plupart des régions du monde, incluant la Russie (où les forêts privées n'existent quasiment pas) et les États-Unis.
-Liste des pays d'Europe par superficie forestière
-Source : FAO (2020 ; hors Fédération de Russie - 815 312 000 ha)[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts européennes s'étendent sur un milliard d'hectares (1 017 millions d'ha), ce qui représente un quart des forêts mondiales (4 059 millions d'ha). Quatre cinquièmes de ces forêts se trouvent en Russie, qui à elle seule possède un cinquième des réserves forestières mondiales (815 millions d'ha).
+La proportion de surface couverte par les forêts en Europe est de 46 %, mais les différences entre pays sont fortes. Le pays le plus couvert est la Finlande, avec 73 %. Le pays le moins couvert est Monaco, qui n'a pas de forêts. 178 millions d'hectares de forêt se trouvent sur le territoire de l'Union européenne, ce qui représente 40 % de sa surface.
+L’Europe est le continent qui a expérimenté le plus important gain de couverture forestière. Depuis les années 1950, la surface forestière  a augmenté de 300 000 km², soit l’équivalent de la surface de l’Italie,  parfois naturellement (on parle de forêts secondaires), parfois par des plantations artificielles. Les gains les plus élevés ont été observés durant les dernières décennies : les estimations vont de 8 000 km² par an depuis les années 1990, à 28 300 km² par an entre 1982 et 2015. L'Irlande a vu sa surface forestière augmenter de plus de 20 % entre 2000 et 2010 ; quatre pays de l'UE perdent cependant des forêts, dont le Danemark qui en a perdu 5 % sur une décennie (les autres pays sont le Portugal, la Slovénie et la Finlande). Plusieurs publications scientifiques récentes montrent que les forêts secondaires non gérées favorisent la biodiversité et sont plus résilientes face à la sécheresse. Leurs résultats ont été publiés en 2020 dans une série de six articles de la revue Annals of Forest Science.
+40 % des forêts de l'Union européenne sont privées, avec une grande disparité entre les différents États membres : de 0 % pour Malte (ou bien 11 % pour la Bulgarie) à 98 % au Portugal. Ce pourcentage est plus important que pour la plupart des régions du monde, incluant la Russie (où les forêts privées n'existent quasiment pas) et les États-Unis.
 </t>
         </is>
       </c>
@@ -567,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Europe</t>
+          <t>Forêt_en_Europe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +596,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Situation actuelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des pays d'Europe par superficie forestière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source : FAO (2020 ; hors Fédération de Russie - 815 312 000 ha)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêt_en_Europe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_en_Europe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Comparaison avec les forêts tempérées d'autres continents</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'orientation des chaînes de montagnes, différente en Amérique et en Europe, explique en partie les différences entre les forêts tempérées européenne et américaine. 
 Ainsi l'absence d'un barrage montagneux aussi important que les montagnes rocheuses des États-Unis permet à l'air humide en provenance de l'océan atlantique de pénétrer profondément dans les terres. Par contre, les formations montagneuses du sud de l'Europe réduisent l'étendue du climat tempéré chaud, limité au pourtour de la Méditerranée.
@@ -593,31 +646,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_en_Europe</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_en_Europe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/For%C3%AAt_en_Europe</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Diversité des forêts européennes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs grands types de forêts se trouvent en Europe. La composition et la structure des forêts s'expliquent en grande partie par deux facteurs climatiques :
 La latitude, qui a un effet sur la température moyenne qui diminue lorsque l'on monte vers le nord. Cette diminution est corrélée avec celle de la période de végétation.
@@ -632,39 +687,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>For%C3%AAt_en_Europe</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_en_Europe</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Enjeux</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For%C3%AAt_en_Europe</t>
+          <t>Forêt_en_Europe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,15 +708,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Enjeux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_en_Europe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_en_Europe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Politique forestière en Europe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La MCPFE (Conférence ministérielle sur la protection des forêts en Europe), aussi appelée Forest Europe, est un processus politique réunissant les pays de l'Union européenne ainsi que d'autres pays européens (dont la Russie). Elle a développé des lignes de conduite pour des forêts gérées durablement. Elle rédige également un questionnaire à propos de l'état des forêts européennes qu'elle envoie aux pays membres, et ce tous les 5 ans[11].
-L'Union européenne n'a actuellement pas de politique européenne spécifique. Les mesures prises en relation avec la forêt dépendent de la politique agricole commune, dont presque 10 % du budget est en relation avec les forêts[12].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La MCPFE (Conférence ministérielle sur la protection des forêts en Europe), aussi appelée Forest Europe, est un processus politique réunissant les pays de l'Union européenne ainsi que d'autres pays européens (dont la Russie). Elle a développé des lignes de conduite pour des forêts gérées durablement. Elle rédige également un questionnaire à propos de l'état des forêts européennes qu'elle envoie aux pays membres, et ce tous les 5 ans.
+L'Union européenne n'a actuellement pas de politique européenne spécifique. Les mesures prises en relation avec la forêt dépendent de la politique agricole commune, dont presque 10 % du budget est en relation avec les forêts.
 Cependant, l'Union européenne a adopté en 2006 le Plan d'Action pour les Forêts, qui donne un cadre aux politiques forestières des États membres. Ce plan a comme principaux objectifs d'améliorer la communication autour des forêts, de rendre l'économie forestière plus compétitive, et de faire contribuer les forêts et le monde forestier au bien-être global et à la protection de l’environnement. 
-Ce document accorde également une grande place à la durabilité des forêts et à leur multifonctionnalité[13].
+Ce document accorde également une grande place à la durabilité des forêts et à leur multifonctionnalité.
 </t>
         </is>
       </c>
